--- a/Dataset/Authors/TER_Phorm.xlsx
+++ b/Dataset/Authors/TER_Phorm.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\.shortcut-targets-by-id\1knjo21SeGbZ1-eICJFWxrgYeTavGEZsK\Latin_Compounds_Database\Auctores\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62095BB0-42A5-4B6D-8C96-DD256A144BED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91BC9381-4985-4614-9ED4-9FEF985AD758}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{EA7F6149-F38C-4D2D-85F1-139008140D31}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>P. Terentius Afer</t>
   </si>
@@ -106,6 +106,12 @@
   </si>
   <si>
     <t>benedictus</t>
+  </si>
+  <si>
+    <t>mirificus</t>
+  </si>
+  <si>
+    <t>saevidicus</t>
   </si>
 </sst>
 </file>
@@ -509,7 +515,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB6298C0-2008-4946-A191-FF3801475401}">
-  <dimension ref="A1:C22"/>
+  <dimension ref="A1:C24"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
@@ -678,31 +684,47 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="B20" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="B21" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B22" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A23" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B22" s="1">
+      <c r="B23" s="1">
         <v>4</v>
       </c>
     </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A24" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B24" s="1">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A6:B22">
-    <sortCondition ref="A6:A22"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A6:B24">
+    <sortCondition ref="A24"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Dataset/Authors/TER_Phorm.xlsx
+++ b/Dataset/Authors/TER_Phorm.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\.shortcut-targets-by-id\1knjo21SeGbZ1-eICJFWxrgYeTavGEZsK\Latin_Compounds_Database\Auctores\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91BC9381-4985-4614-9ED4-9FEF985AD758}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49343E8E-4EA9-4738-8A5F-DF86ADD3AFBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{EA7F6149-F38C-4D2D-85F1-139008140D31}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
     <t>P. Terentius Afer</t>
   </si>
@@ -112,6 +112,9 @@
   </si>
   <si>
     <t>saevidicus</t>
+  </si>
+  <si>
+    <t>accipiter</t>
   </si>
 </sst>
 </file>
@@ -515,7 +518,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB6298C0-2008-4946-A191-FF3801475401}">
-  <dimension ref="A1:C24"/>
+  <dimension ref="A1:C25"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
@@ -572,7 +575,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="B6" s="1">
         <v>1</v>
@@ -580,7 +583,7 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B7" s="1">
         <v>1</v>
@@ -588,7 +591,7 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="B8" s="1">
         <v>1</v>
@@ -596,7 +599,7 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="B9" s="1">
         <v>1</v>
@@ -604,23 +607,23 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="B10" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="B11" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B12" s="1">
         <v>1</v>
@@ -628,7 +631,7 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B13" s="1">
         <v>1</v>
@@ -636,7 +639,7 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="B14" s="1">
         <v>1</v>
@@ -644,39 +647,39 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B15" s="1">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="B16" s="1">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="B17" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B18" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="B19" s="1">
         <v>1</v>
@@ -684,7 +687,7 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B20" s="1">
         <v>1</v>
@@ -692,39 +695,47 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="B21" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="B22" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="B23" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B24" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B24" s="1">
+      <c r="B25" s="1">
         <v>1</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A6:B24">
-    <sortCondition ref="A24"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A6:B25">
+    <sortCondition ref="A25"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
